--- a/DATA_goal/Junction_Flooding_477.xlsx
+++ b/DATA_goal/Junction_Flooding_477.xlsx
@@ -471,9 +471,9 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -759,103 +759,103 @@
         <v>44808.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.21</v>
+        <v>72.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44808.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.91</v>
+        <v>29.1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.82</v>
+        <v>118.23</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.61</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.7</v>
+        <v>26.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44808.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_477.xlsx
+++ b/DATA_goal/Junction_Flooding_477.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44808.54861111111</v>
+        <v>45158.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44808.55555555555</v>
+        <v>45158.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.31</v>
+        <v>23.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.72</v>
+        <v>16.637</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>2.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.71</v>
+        <v>49.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.15</v>
+        <v>40.967</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.61</v>
+        <v>18.147</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.63</v>
+        <v>70.22499999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.67</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.54</v>
+        <v>12.226</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.63</v>
+        <v>18.412</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.01</v>
+        <v>19.904</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.28</v>
+        <v>20.858</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.57</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.92</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.2</v>
+        <v>25.579</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.11</v>
+        <v>15.268</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.68</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.257</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.09</v>
+        <v>267.375</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.68</v>
+        <v>50.484</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.52</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.34</v>
+        <v>33.744</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.8</v>
+        <v>17.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.99</v>
+        <v>2.208</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.98</v>
+        <v>34.006</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.14</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.96</v>
+        <v>13.168</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.62</v>
+        <v>15.447</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.05</v>
+        <v>20.795</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.91</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.61</v>
+        <v>63.516</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.75</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44808.5625</v>
+        <v>45158.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.32</v>
+        <v>1.922</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.72</v>
+        <v>0.991</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.838</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.04</v>
+        <v>3.761</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.09</v>
+        <v>3.126</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.88</v>
+        <v>1.517</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.1</v>
+        <v>14.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.52</v>
+        <v>2.327</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.72</v>
+        <v>0.985</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.65</v>
+        <v>1.309</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>1.592</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>1.497</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.18</v>
+        <v>0.515</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.73</v>
+        <v>2.189</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.73</v>
+        <v>1.524</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.961</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.383</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.23</v>
+        <v>15.713</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.61</v>
+        <v>4.784</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.41</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.43</v>
+        <v>3.094</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.97</v>
+        <v>1.687</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.63</v>
+        <v>6.144</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.68</v>
+        <v>1.226</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.08</v>
+        <v>1.279</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.13</v>
+        <v>1.456</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.23</v>
+        <v>1.579</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.99</v>
+        <v>13.614</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.54</v>
+        <v>0.655</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.33</v>
+        <v>1.746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44808.56944444445</v>
+        <v>45158.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.74</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.28</v>
+        <v>17.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.19</v>
+        <v>51.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.54</v>
+        <v>42.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.19</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.29</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.13</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.14</v>
+        <v>12.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.59</v>
+        <v>19.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.12</v>
+        <v>20.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.87</v>
+        <v>21.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.88</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.34</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.25</v>
+        <v>26.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.17</v>
+        <v>15.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.44</v>
+        <v>278.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.24</v>
+        <v>52.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.22</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.08</v>
+        <v>35.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.41</v>
+        <v>18.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.32</v>
+        <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.73</v>
+        <v>33.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.19</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.2</v>
+        <v>13.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.39</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.25</v>
+        <v>61.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44808.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.75</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_477.xlsx
+++ b/DATA_goal/Junction_Flooding_477.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45158.50694444445</v>
+        <v>44808.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.542</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.221</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.493</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.284</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.769</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.341</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.881</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.828</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.728</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.673</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.849</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.779</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.617</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.202</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.642</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.025</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.109</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.266</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.407</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.944</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.145</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.485</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.902</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.071</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45158.51388888889</v>
+        <v>44808.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.06</v>
+        <v>6.313</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.637</v>
+        <v>4.723</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.04</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.52</v>
+        <v>14.715</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.967</v>
+        <v>12.146</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.147</v>
+        <v>4.609</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.22499999999999</v>
+        <v>13.627</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.923</v>
+        <v>7.672</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.226</v>
+        <v>3.538</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.412</v>
+        <v>5.632</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.904</v>
+        <v>7.012</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.858</v>
+        <v>6.283</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.797</v>
+        <v>2.565</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.046</v>
+        <v>4.916</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.579</v>
+        <v>7.205</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.268</v>
+        <v>4.107</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.234</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.257</v>
+        <v>0.573</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.375</v>
+        <v>72.089</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.484</v>
+        <v>13.681</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.657</v>
+        <v>4.522</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.744</v>
+        <v>9.337999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.925</v>
+        <v>4.798</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.208</v>
+        <v>0.994</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.006</v>
+        <v>6.981</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.713</v>
+        <v>4.139</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.168</v>
+        <v>3.962</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.447</v>
+        <v>4.616</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.795</v>
+        <v>7.054</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.905</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.516</v>
+        <v>12.607</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.329000000000001</v>
+        <v>3.004</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.825</v>
+        <v>5.748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45158.52083333334</v>
+        <v>44808.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.922</v>
+        <v>10.319</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.991</v>
+        <v>7.723</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.838</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.761</v>
+        <v>23.036</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.126</v>
+        <v>19.088</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.517</v>
+        <v>7.877</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.52</v>
+        <v>29.101</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.327</v>
+        <v>12.519</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.985</v>
+        <v>5.725</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.309</v>
+        <v>8.648999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.592</v>
+        <v>9.874000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.497</v>
+        <v>9.862</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.515</v>
+        <v>3.183</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.504</v>
+        <v>8.044</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.189</v>
+        <v>11.731</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.524</v>
+        <v>6.729</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.961</v>
+        <v>0.161</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.383</v>
+        <v>0.553</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.713</v>
+        <v>118.234</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.784</v>
+        <v>22.614</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.388</v>
+        <v>7.412</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.094</v>
+        <v>15.428</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.687</v>
+        <v>7.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.262</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.144</v>
+        <v>14.629</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.226</v>
+        <v>6.681</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.279</v>
+        <v>6.079</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.456</v>
+        <v>7.131</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.579</v>
+        <v>10.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.472</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.614</v>
+        <v>26.987</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.655</v>
+        <v>4.542</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.746</v>
+        <v>9.327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45158.52777777778</v>
+        <v>44808.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.02</v>
+        <v>1.741</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.71</v>
+        <v>1.281</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.94</v>
+        <v>4.192</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.96</v>
+        <v>3.536</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.9</v>
+        <v>1.188</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.54000000000001</v>
+        <v>10.288</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.09</v>
+        <v>2.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.9</v>
+        <v>1.141</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.31</v>
+        <v>1.593</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.94</v>
+        <v>2.124</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.98</v>
+        <v>1.871</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>0.881</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.335</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.73</v>
+        <v>2.246</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.81</v>
+        <v>1.174</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.055</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.234</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.8</v>
+        <v>15.439</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.44</v>
+        <v>4.236</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.35</v>
+        <v>1.222</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.27</v>
+        <v>3.085</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.74</v>
+        <v>1.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.317</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.89</v>
+        <v>4.733</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.33</v>
+        <v>1.193</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.59</v>
+        <v>1.204</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.97</v>
+        <v>1.394</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.94</v>
+        <v>2.142</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.76</v>
+        <v>10.253</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.69</v>
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44808.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.45</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.61</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_477.xlsx
+++ b/DATA_goal/Junction_Flooding_477.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44808.54861111111</v>
+        <v>45158.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44808.55555555555</v>
+        <v>45158.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.313</v>
+        <v>23.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.723</v>
+        <v>16.637</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>2.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.715</v>
+        <v>49.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.146</v>
+        <v>40.967</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.609</v>
+        <v>18.147</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.627</v>
+        <v>70.22499999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.672</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.538</v>
+        <v>12.226</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.632</v>
+        <v>18.412</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.012</v>
+        <v>19.904</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.283</v>
+        <v>20.858</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.565</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.916</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.205</v>
+        <v>25.579</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.107</v>
+        <v>15.268</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.234</v>
+        <v>1.68</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.573</v>
+        <v>1.257</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.089</v>
+        <v>267.375</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.681</v>
+        <v>50.484</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.522</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.337999999999999</v>
+        <v>33.744</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.798</v>
+        <v>17.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.994</v>
+        <v>2.208</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.981</v>
+        <v>34.006</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.139</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.962</v>
+        <v>13.168</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.616</v>
+        <v>15.447</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.054</v>
+        <v>20.795</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.905</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.607</v>
+        <v>63.516</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.004</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.748</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44808.5625</v>
+        <v>45158.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.319</v>
+        <v>1.922</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.723</v>
+        <v>0.991</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.838</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.036</v>
+        <v>3.761</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.088</v>
+        <v>3.126</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.877</v>
+        <v>1.517</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.101</v>
+        <v>14.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.519</v>
+        <v>2.327</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.725</v>
+        <v>0.985</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.648999999999999</v>
+        <v>1.309</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.874000000000001</v>
+        <v>1.592</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.862</v>
+        <v>1.497</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.183</v>
+        <v>0.515</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.044</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.731</v>
+        <v>2.189</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.729</v>
+        <v>1.524</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.161</v>
+        <v>0.961</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.553</v>
+        <v>0.383</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.234</v>
+        <v>15.713</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.614</v>
+        <v>4.784</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.412</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.428</v>
+        <v>3.094</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.97</v>
+        <v>1.687</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.262</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.629</v>
+        <v>6.144</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.681</v>
+        <v>1.226</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.079</v>
+        <v>1.279</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.131</v>
+        <v>1.456</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.23</v>
+        <v>1.579</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.472</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.987</v>
+        <v>13.614</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.542</v>
+        <v>0.655</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.327</v>
+        <v>1.746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44808.56944444445</v>
+        <v>45158.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.741</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.281</v>
+        <v>17.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.001</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.192</v>
+        <v>51.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.536</v>
+        <v>42.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.188</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.288</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.13</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.141</v>
+        <v>12.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.593</v>
+        <v>19.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.124</v>
+        <v>20.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.871</v>
+        <v>21.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.881</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.335</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.246</v>
+        <v>26.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.174</v>
+        <v>15.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.055</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.234</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.439</v>
+        <v>278.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.236</v>
+        <v>52.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.222</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.085</v>
+        <v>35.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.41</v>
+        <v>18.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.317</v>
+        <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.733</v>
+        <v>33.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.193</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.204</v>
+        <v>13.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.394</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.142</v>
+        <v>21.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.311</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.253</v>
+        <v>61.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.579</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44808.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.61</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.75</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>
